--- a/Ringkasan Hasil Paper 2.xlsx
+++ b/Ringkasan Hasil Paper 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT PAPER UGI 2025\JUDI ONLINE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT PAPER UGI 2025\PAPER JUDI ONLINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F32170-8A11-4C6C-A8A0-E91468827C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C390947A-45DA-4408-8D03-AA13E1C73AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="155">
   <si>
     <t>No</t>
   </si>
@@ -69,9 +69,6 @@
     <t>City /Country (Bisa Buat Peta)</t>
   </si>
   <si>
-    <t>IAIC Transactions on Sustainable Digital Innovation (ITSDI) does not charge to the author : (1) Article Submission: 0.00 (IDR), the author does not pay article submission fees as part of the submission process of articles in IAIC Transactions on Sustainable Digital Innovation (ITSDI). (2) The Article Publication: if the article has been accepted for publication, the author pay the publication fee in ITSDI 0 (USD) / 0 (IDR).</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>https://jurnal.saburai.id/index.php/hkm/article/view/2272</t>
   </si>
   <si>
-    <t>This journal charges the following author fees. Article Submission: 0.00 (IDR) Justicia Sains:Jurnal Ilmu Hukum does not charge any fee for Article Processing or for Article Submission. The user or author could submit the article free to be published in this journal.</t>
-  </si>
-  <si>
     <t>2 issues per year (June and November)</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>Education system; Healthcare system; Social system; Innovation of policy; Institutional reform; Physical infrastructure; Urban development; Green development; Climate-resilient infrastructure; Sustainable infrastructure; Infrastructure finance; Infrastructure governance; Public management and business</t>
   </si>
   <si>
-    <t>Note: From May 1 2025 onwards, the Article Processing Charge (APC) for new submissions to the journal will be revised to $500. The previous APC policy of $1800 will remain in effect for submissions made prior to this date.</t>
-  </si>
-  <si>
     <t>https://ejournal.insuriponorogo.ac.id/index.php/absorbent_mind/article/view/5696</t>
   </si>
   <si>
@@ -234,9 +225,6 @@
     <t>Illegal Online Loans, Illegal Online Gambling, Sugar Daddy Phenomenon, Indonesia, Financial Desperation</t>
   </si>
   <si>
-    <t>This journal charges the following author fees. Article Submission: 0.00 (IDR); Article Publication: 500.000 (IDR)</t>
-  </si>
-  <si>
     <t>JISORA has been published since 2018 with a publication frequency of 2 times a year (March and September).</t>
   </si>
   <si>
@@ -255,9 +243,6 @@
     <t>Edi Saputra Hasibuan</t>
   </si>
   <si>
-    <t>Journal of Social Research publishes all its articles in full open access format. The scientific community and the general public have, for free, unlimited and immediate access to all content published in Journal of Social Research as soon as it is published on the Internet. This means that Journal of Social Research does not receive any income from selling subscriptions to print or view online versions of its journals or from charging "pay-per-view" fees.  herefore, Journal of Social Research needs to defray its editorial and production costs by collecting article processing charge (APC) from authors'  stitutes or research funder. The value of Journal of Social Research article processing charge (APC) is USD 183,80 or equivalent to IDR 3,000,000. The APC covers editorial services and production of an article. Submission to Journal of Social Research is free of charge. APC are paid when the editor states that the articles are accepted for processing to the next process. The Journal of Social Research editor does not accept any payments to our bank account. All payments use a third partner. The editor will contact the author of the APC issue when the status of the article is accepted by the two reviewers. There has been no APC waiver since the December 2021 submission.</t>
-  </si>
-  <si>
     <t>https://ijsr.internationaljournallabs.com/index.php/ijsr/article/view/1405</t>
   </si>
   <si>
@@ -277,13 +262,505 @@
   </si>
   <si>
     <t>This journal publishes research articles covering social research, including: Humanities and social sciences, contemporary political science, Educational sciences, religious sciences and philosophy, economics, Engineering sciences, Health sciences, medical sciences, design arts and media sciences. This journal publishes research articles covering social research.</t>
+  </si>
+  <si>
+    <t>https://ejournal.cria.or.id/index.php/db/article/view/161</t>
+  </si>
+  <si>
+    <t>Alifia Farasa, Irfan Hakim, Ameylia Suryawardani, Faradiba Romadhona, Sukma Irdiana</t>
+  </si>
+  <si>
+    <t>The opiate toxin of online gambling: a consumer behavior analysis of online gambling users' addiction levels</t>
+  </si>
+  <si>
+    <t>Digital Business Tren Bisnis Masa Depan</t>
+  </si>
+  <si>
+    <t>Digital Business:  Tren Bisnis Masa Depan is a journal that is generally integrated in the fields of economics, management and business. This journal encourages writers or lecturers and students engaged in economics, management and business to be able to submit their manuscripts for publication. The aspects collected include: Management, Economics, Business, Banking, Accounting, Actuarial, Sharia Economics, Development Economics, Digital Business, Entrepreneurship, Financial Management, Advertising, Human Resource Management, Natural Resource Management, Marketing Management, Sharia Accounting, Islamic Banking, Secretary, Culinary Business, Fiscal Administration, Commerce, Business Management, Accounting Computerization, International Business and Syahriah Business Management.</t>
+  </si>
+  <si>
+    <t>Frekuensi : Quarterly (March, June, September, December)</t>
+  </si>
+  <si>
+    <t>Addiction; Online Gambling; Society</t>
+  </si>
+  <si>
+    <t>2985-7848</t>
+  </si>
+  <si>
+    <t>belum ada</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IAIC Transactions on Sustainable Digital Innovation (ITSDI) does not charge to the author : (1) Article Submission: 0.00 (IDR), the author does not pay article submission fees as part of the submission process of articles in IAIC Transactions on Sustainable Digital Innovation (ITSDI). (2) The Article Publication: if the article has been accepted for publication, the author pay the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publication fee in ITSDI 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (USD) / 0 (IDR).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note: From May 1 2025 onwards, the Article Processing Charge (APC) for new submissions to the journal will be revised to $500. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The previous APC policy of $1800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will remain in effect for submissions made prior to this date.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This journal charges the following author fees. Article Submission: 0.00 (IDR) Justicia Sains:Jurnal Ilmu Hukum</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> does not charge any fee for Article Processing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or for Article Submission. The user or author could submit the article free to be published in this journal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This journal charges the following author fees. Article Submission: 0.00 (IDR); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Article Publication: 500.000 (IDR)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Journal of Social Research publishes all its articles in full open access format. The scientific community and the general public have, for free, unlimited and immediate access to all content published in Journal of Social Research as soon as it is published on the Internet. This means that Journal of Social Research does not receive any income from selling subscriptions to print or view online versions of its journals or from charging "pay-per-view" fees.  herefore, Journal of Social Research needs to defray its editorial and production costs by collecting article processing charge (APC) from authors'  stitutes or research funder. The value of Journal of Social Research article processing charge (APC) is USD 183,80 or equivalent to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IDR 3,000,000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The APC covers editorial services and production of an article. Submission to Journal of Social Research is free of charge. APC are paid when the editor states that the articles are accepted for processing to the next process. The Journal of Social Research editor does not accept any payments to our bank account. All payments use a third partner. The editor will contact the author of the APC issue when the status of the article is accepted by the two reviewers. There has been no APC waiver since the December 2021 submission.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This journal charges the following author fees.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Article Submission: 250.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (IDR) Authors are required to pay an Article Submission Fee as part of the submission process to contribute to review costs. Fast-Track Review: 850.000 (IDR) With the payment of this fee, the review, editorial decision, and author notification on this manuscript is guaranteed to take place within 3 weeks.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Article Publication: 450.000 (IDR)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> If this paper is accepted for publication, you will be asked to pay an Article Publication Fee to cover publications costs.</t>
+    </r>
+  </si>
+  <si>
+    <t>Journal of Humanities and Social Studies</t>
+  </si>
+  <si>
+    <t>https://journal.unpak.ac.id/index.php/jhss/article/view/6794</t>
+  </si>
+  <si>
+    <t>This journal charges the following author fees. Article Submission: 0.00 (IDR) Authors are not required to pay an Article Submission Fee as part of the submission process to contribute to review costs. If you do not have funds to pay such fees, you will have an opportunity to waive each fee. We do not want fees to prevent the publication of worthy work.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.33751/jhss.v6i3.6794</t>
+  </si>
+  <si>
+    <t>phenomena; online gambling; online games</t>
+  </si>
+  <si>
+    <t>2598-120X</t>
+  </si>
+  <si>
+    <t>Abdul Azis Lubis, Syarbaini Saleh, Yummi Jumiati Marsa</t>
+  </si>
+  <si>
+    <t>THE PHENOMENON OF ONLINE GAMBLING UNDER THE GUISE OF ONLINE GAMES AMONG COLLEGE STUDENT</t>
+  </si>
+  <si>
+    <t>humanities; social studies; management; education; teaching; learning;</t>
+  </si>
+  <si>
+    <t>JHSS (Journal of Humanities and Social Studies) was first published in September 2017. During 2017-2020, the journal published every March and September. Starting in 2021, the journal published every March, July, and November.</t>
+  </si>
+  <si>
+    <t>Nurbani, Haris Wijaya, Sabilla Tri Ananda</t>
+  </si>
+  <si>
+    <t>The Intertwined Between Online Gambling and Online Loans (Qualitative Study of College Students in Medan City)</t>
+  </si>
+  <si>
+    <t>komunika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komunika is an international journal that focuses on the scholarly study of communication and social science. The journal is dedicated to the advancement of knowledge in the field by promoting the publication of innovative research and theoretical developments in the field of communication and social science, including digital media, interpersonal communication, mass media, organizational communication, public relations, Journalistic, Sociology, Anthropology, Politics, Culture, Linguistic and more. </t>
+  </si>
+  <si>
+    <t>2 (two) issues per year</t>
+  </si>
+  <si>
+    <t>https://talenta.usu.ac.id/komunika/article/view/18289</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KomunikA is an open access journal, then Author submission, as well as article processing and publishing, is free of charge. Readers can read and download any full-text articles for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>free of charge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>online gambling, online loans, college students, medan city</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.32734/komunika.v20i02.18289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2807-596X</t>
+  </si>
+  <si>
+    <t>I Made Indra; Antony Japari; Fanny Novika; C. Nike Septivani; Melinia Rosmayanti; Enno Karina; Bunga Chalista</t>
+  </si>
+  <si>
+    <t>THE PHENOMENON OF ONLINE GAMBLING UNDER THE GUISE OF ONLINE GAMES AMONG THE YOUNGER GENERATION</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL JOURNAL OF MULTIDISCIPLINARY RESEARCH AND LITERATURE</t>
+  </si>
+  <si>
+    <t>IJOMRAL is a multidisciplinary forum for the publication of articles and research and discussion of issues that bear upon and enfold all the field. focuses on a broad range of topics covering all topic form Research or Literature Review that are of regional and World relevance.</t>
+  </si>
+  <si>
+    <t>https://ijomral.esc-id.org/index.php/home/article/view/294</t>
+  </si>
+  <si>
+    <t>If this paper is accepted for publication, you will be asked to pay an Article Publication Fee to cover publication costs. The payment also included delivery fees of the hardcopy to the corresponding author (by request and only for Indonesian Author). DOI registration for each paper. Checking the article similarity by Turnitin; the final result will be sent to authors (by request). FREE OF CHARGE will be available for paper submission of authors from a minimum of five countries.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.53067/ijomral.v4i1.294</t>
+  </si>
+  <si>
+    <t>Online Gambling; Online Games; Young Generation</t>
+  </si>
+  <si>
+    <t>2827-8062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	6 issues per year (January, March, May, July, September and November)</t>
+  </si>
+  <si>
+    <t>https://journal.fib.uho.ac.id/index.php/etnoreflika/article/view/2506</t>
+  </si>
+  <si>
+    <t>Jurnal ETNOREFLIKA</t>
+  </si>
+  <si>
+    <t>Erino Nainggolan, Muhammad Iqbal</t>
+  </si>
+  <si>
+    <t>Utilizing Online Gambling: Studying The Factors of The Online Scatter Gambling Phenomenon in The Pahieme Village</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All articles published in the ETNOREFLIKA: Jurnal Sosial dan Budaya are open access and freely available online immediately upon publication. This is made possible by an article-processing charge (APC) of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rp700.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that covers the range of publishing services we provide. Please note that this APC only applied for a manuscript after it was formally accepted for publication. There is no fee for submitting an article.</t>
+    </r>
+  </si>
+  <si>
+    <t>Indonesian Journal Innovation Studies</t>
+  </si>
+  <si>
+    <t>https://ijins.umsida.ac.id/index.php/ijins/article/view/977</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>Ya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Copernicus Internasional </t>
+  </si>
+  <si>
+    <r>
+      <t>Biaya Penulis Penyerahan Artikel: 0,00 (IDR) Biaya Publikasi Artikel/Pemrosesan Artikel (APC): Jika artikel ini diterima untuk dipublikasikan, Anda akan diminta untuk membayar Biaya Publikasi Artikel untuk menutupi biaya publikasi.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 550.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (IDR) Penulis Indonesia dan 50 USD Untuk Penulis Non Indonesia; Judul Tinjauan Cepat Hubungi PIC; Dengan pembayaran biaya ini, tinjauan, keputusan editorial, dan pemberitahuan penulis pada naskah ini dipercepat sesuai dengan antrian Jalur Cepat.</t>
+    </r>
+  </si>
+  <si>
+    <t>The Impact of Online Gambling on Household Harmony in Bojonegoro Regency</t>
+  </si>
+  <si>
+    <t>https://ejournal.unibabwi.ac.id/index.php/santhet/article/view/5499</t>
+  </si>
+  <si>
+    <t>Inclusion and Exclusion of Social Actors in Judi Online ‘Online Gambling’ News:A Corpus-Assisted Critical Discourse Analysis Approach on Kompas.com</t>
+  </si>
+  <si>
+    <t>https://journal2.upgris.ac.id/index.php/eternal/article/view/1708</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This journal charges the following author fees. Article Submission: 0.00 (IDR) Authors are NOT required to pay an Article Submission Fee as part of the submission process to contribute to review costs. Article Publication: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>600000.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (IDR) If this paper is accepted for publication, you will be asked to pay an Article Publication Fee to cover publications costs.</t>
+    </r>
+  </si>
+  <si>
+    <t>ETERNAL: English Teaching Journal</t>
+  </si>
+  <si>
+    <t>https://journal.stiba.ac.id/index.php/bustanul/article/view/1842</t>
+  </si>
+  <si>
+    <t>FAMILY DISHARMONY DUE TO ONLINE GAMBLING IN SIDOARJO DISTRICT PERSPECTIVE OF QUR’ANIC FAMILY SYSTEM THEORY</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This journal charges the following author fees : Article Submission : 0.00 (IDR) Authors are not required to pay an Article Submission Fee as part of the submission process to contribute to review costs. Fast-Track Review : 0.00 (IDR) With the payment of this fee, the review, editorial decision, and author notification on this manuscript is guaranteed to take place within 4 weeks. Article Publication: Rp </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,00 (IDR) If this paper is accepted for publication, you will be asked to pay an Article Publication Fee to cover publications costs. If you do not have funds to pay such fees, you will have an opportunity to waive each fee. We do not want fees to prevent the publication of worthy work.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://e-journal.trisakti.ac.id/index.php/refor/article/view/23442</t>
+  </si>
+  <si>
+    <t>Material Requirement Failures in Online Gambling Indictments: A Case Study of Jakarta Utara District Court Decision No. 43/Pid.B/2021</t>
+  </si>
+  <si>
+    <t>https://jurnal.unismuhpalu.ac.id/index.php/JKS/article/view/7972</t>
+  </si>
+  <si>
+    <t>Legal Certainty In Online Gambling Cases In The Use Of Article 303 KUHP With 27 Paragraph 2 UU ITE</t>
+  </si>
+  <si>
+    <t>Jurnal Kolaboratif Sains</t>
+  </si>
+  <si>
+    <t>DETECTING DIGITAL EVIDENCE OF ONLINE GAMBLING USING LIVE FORENSICS ON ANDROID-BASED SMARTPHONES</t>
+  </si>
+  <si>
+    <t>https://ejournal.uin-suka.ac.id/saintek/cybersecurity/article/view/1103</t>
+  </si>
+  <si>
+    <t>Application of Law Information and Electronic Transactions in Crime Investigation of Online Gambling</t>
+  </si>
+  <si>
+    <t>https://jurnal.unissula.ac.id/index.php/RH/article/view/3328</t>
+  </si>
+  <si>
+    <t>AKSIOLOGI PSIKOLOGI SOSIAL : PERILAKU KONFORMITAS JUDI ONLINE BERDAMPAK PADA KESEHATAN MENTAL KELUARGA</t>
+  </si>
+  <si>
+    <t>https://journal.uir.ac.id/index.php/annafs/article/view/19770</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,13 +776,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -321,12 +820,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -610,53 +1112,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="4" width="53.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="63.1796875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="21.26953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="47" style="1" customWidth="1"/>
-    <col min="14" max="14" width="68.453125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="57.54296875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="30.1796875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="25.81640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="31" style="1" customWidth="1"/>
-    <col min="19" max="19" width="47.54296875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="36.453125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="53.26953125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="33.90625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="4" width="53.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="63.140625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="21.28515625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="30.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="47" style="1" customWidth="1"/>
+    <col min="16" max="16" width="68.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="57.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="30.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="31" style="1" customWidth="1"/>
+    <col min="21" max="21" width="47.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="36.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="53.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="33.85546875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -674,63 +1175,69 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="98.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E2" s="1">
         <v>2022</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1">
         <v>3</v>
@@ -739,48 +1246,48 @@
         <v>2026</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E3" s="1">
         <v>2023</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1">
         <v>4</v>
@@ -789,92 +1296,92 @@
         <v>2026</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="V3" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E4" s="1">
         <v>2024</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="W4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="E5" s="1">
         <v>2024</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J5" s="1">
         <v>6</v>
@@ -883,132 +1390,591 @@
         <v>2028</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="W5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E6" s="1">
         <v>2024</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J6" s="1">
         <v>4</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U6" s="2" t="s">
+      <c r="X6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="246.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:24" ht="278.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="E7" s="1">
         <v>2023</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J7" s="1">
         <v>4</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2026</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2025</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="113.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2026</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2023</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2026</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2025</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="83.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2025</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2027</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="158.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2024</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2025</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2027</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2025</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="1">
+        <v>6</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2025</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>82</v>
+      <c r="C19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2027</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2018</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2018</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2025</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{4792D6BB-6849-4863-A5FE-448509E4D9ED}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{9C326C53-8D06-49DB-88F7-24043E6D38DF}"/>
-    <hyperlink ref="M3" r:id="rId3" xr:uid="{F12FF47A-BCF6-497A-896C-5969A199AAC8}"/>
-    <hyperlink ref="M4" r:id="rId4" xr:uid="{F542BF56-C5F6-4EC3-81DC-0072C9719B9C}"/>
-    <hyperlink ref="M5" r:id="rId5" xr:uid="{AEBB3BA7-7830-4A4F-B6B9-74A3B9CE17D1}"/>
-    <hyperlink ref="U3" r:id="rId6" xr:uid="{6CF87F12-3DF1-43D0-8E8B-AEAD53E57BF4}"/>
-    <hyperlink ref="U4" r:id="rId7" xr:uid="{ABD802E7-787A-47BC-8969-037625400164}"/>
-    <hyperlink ref="U5" r:id="rId8" xr:uid="{32B2CE6C-9B64-4BC3-9826-23C1E4B7E355}"/>
-    <hyperlink ref="M6" r:id="rId9" xr:uid="{1087BB8E-AA27-4544-BBEE-48843028FF19}"/>
-    <hyperlink ref="U6" r:id="rId10" xr:uid="{2D997BA5-848B-47AD-A58B-94EE488A94B4}"/>
-    <hyperlink ref="M7" r:id="rId11" xr:uid="{077A0187-F859-4037-804D-97C814115F2D}"/>
-    <hyperlink ref="U7" r:id="rId12" xr:uid="{25925126-754F-40F0-ABAA-8D9851EC9760}"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{4792D6BB-6849-4863-A5FE-448509E4D9ED}"/>
+    <hyperlink ref="W2" r:id="rId2" xr:uid="{9C326C53-8D06-49DB-88F7-24043E6D38DF}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{F12FF47A-BCF6-497A-896C-5969A199AAC8}"/>
+    <hyperlink ref="O4" r:id="rId4" xr:uid="{F542BF56-C5F6-4EC3-81DC-0072C9719B9C}"/>
+    <hyperlink ref="O5" r:id="rId5" xr:uid="{AEBB3BA7-7830-4A4F-B6B9-74A3B9CE17D1}"/>
+    <hyperlink ref="W3" r:id="rId6" xr:uid="{6CF87F12-3DF1-43D0-8E8B-AEAD53E57BF4}"/>
+    <hyperlink ref="W4" r:id="rId7" xr:uid="{ABD802E7-787A-47BC-8969-037625400164}"/>
+    <hyperlink ref="W5" r:id="rId8" xr:uid="{32B2CE6C-9B64-4BC3-9826-23C1E4B7E355}"/>
+    <hyperlink ref="O6" r:id="rId9" xr:uid="{1087BB8E-AA27-4544-BBEE-48843028FF19}"/>
+    <hyperlink ref="W6" r:id="rId10" xr:uid="{2D997BA5-848B-47AD-A58B-94EE488A94B4}"/>
+    <hyperlink ref="O7" r:id="rId11" xr:uid="{077A0187-F859-4037-804D-97C814115F2D}"/>
+    <hyperlink ref="W7" r:id="rId12" xr:uid="{25925126-754F-40F0-ABAA-8D9851EC9760}"/>
+    <hyperlink ref="O8" r:id="rId13" xr:uid="{FFEDD589-FAC1-48D1-8496-CD2B7E533407}"/>
+    <hyperlink ref="O9" r:id="rId14" xr:uid="{0BF8E12F-4484-4CB3-93FE-522E7535C8C5}"/>
+    <hyperlink ref="W9" r:id="rId15" xr:uid="{2F6EC03F-0666-4912-B10A-32D8E018C04D}"/>
+    <hyperlink ref="O10" r:id="rId16" xr:uid="{F08E92C8-B430-4575-ABE3-46C2AA3A8722}"/>
+    <hyperlink ref="W10" r:id="rId17" xr:uid="{C749D1E9-52B9-4386-985A-C21B22EC18BE}"/>
+    <hyperlink ref="O11" r:id="rId18" xr:uid="{9224BD08-CC1F-4922-996D-E6DBD9EC120D}"/>
+    <hyperlink ref="W11" r:id="rId19" xr:uid="{B87C64D4-811D-45B2-BC1D-245962ED14E9}"/>
+    <hyperlink ref="O12" r:id="rId20" xr:uid="{C53AE5D8-4C99-43C6-BA77-FE1D8B8C7C8B}"/>
+    <hyperlink ref="O13" r:id="rId21" xr:uid="{3BF9F0AB-8E48-4F6C-908C-873849403B59}"/>
+    <hyperlink ref="O14" r:id="rId22" xr:uid="{10DF7874-2595-45A7-A810-0595EDB54D1F}"/>
+    <hyperlink ref="O15" r:id="rId23" xr:uid="{D5E0DBBD-507B-4B66-BD44-B0FE536118FE}"/>
+    <hyperlink ref="O16" r:id="rId24" xr:uid="{B73393B3-0987-4AC3-9C08-81D03D5E8943}"/>
+    <hyperlink ref="O17" r:id="rId25" xr:uid="{877B23B1-7B9D-4906-924C-1E31000CA073}"/>
+    <hyperlink ref="O18" r:id="rId26" xr:uid="{F0426838-D897-45F6-B2D9-F29A9CE81D7A}"/>
+    <hyperlink ref="O19" r:id="rId27" xr:uid="{B2DA66C2-A7F3-4135-A294-E097E0C1891A}"/>
+    <hyperlink ref="O20" r:id="rId28" xr:uid="{59F1E8A1-611A-411B-A432-6DB387956AAC}"/>
+    <hyperlink ref="O21" r:id="rId29" xr:uid="{AE65832C-10E8-43D2-BCAA-0CEC10DE4926}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
